--- a/Daily_Mission_BoBs.xlsx
+++ b/Daily_Mission_BoBs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3188" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3210" uniqueCount="108">
   <si>
     <t>Mission Number</t>
   </si>
@@ -746,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1594"/>
+  <dimension ref="A1:C1605"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1558" workbookViewId="0">
-      <selection activeCell="C1574" sqref="C1574:C1578"/>
+    <sheetView tabSelected="1" topLeftCell="A1594" workbookViewId="0">
+      <selection activeCell="A1606" sqref="A1606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -18285,6 +18285,127 @@
         <v>18</v>
       </c>
       <c r="C1594" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:3">
+      <c r="A1595" s="2">
+        <v>2029</v>
+      </c>
+      <c r="B1595" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1595" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:3">
+      <c r="A1596" s="2">
+        <v>2030</v>
+      </c>
+      <c r="B1596" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1596" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:3">
+      <c r="A1597" s="2">
+        <v>2031</v>
+      </c>
+      <c r="B1597" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1597" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:3">
+      <c r="A1598" s="2">
+        <v>2032</v>
+      </c>
+      <c r="B1598" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1598" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:3">
+      <c r="A1599" s="2">
+        <v>2033</v>
+      </c>
+      <c r="B1599" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1599" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:3">
+      <c r="A1600" s="2">
+        <v>2034</v>
+      </c>
+      <c r="B1600" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1600" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:3">
+      <c r="A1601" s="2">
+        <v>2035</v>
+      </c>
+      <c r="B1601" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1601" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:3">
+      <c r="A1602" s="2">
+        <v>2036</v>
+      </c>
+      <c r="B1602" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1602" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:3">
+      <c r="A1603" s="2">
+        <v>2037</v>
+      </c>
+      <c r="B1603" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1603" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:3">
+      <c r="A1604" s="2">
+        <v>2038</v>
+      </c>
+      <c r="B1604" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1604" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:3">
+      <c r="A1605" s="2">
+        <v>2039</v>
+      </c>
+      <c r="B1605" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1605" s="2" t="s">
         <v>55</v>
       </c>
     </row>
